--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1627,28 +1627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.50704958813681</v>
+        <v>109.4213588518698</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.0992499018903</v>
+        <v>149.7151305107211</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.5417074551503</v>
+        <v>135.426528581324</v>
       </c>
       <c r="AD2" t="n">
-        <v>88507.04958813681</v>
+        <v>109421.3588518698</v>
       </c>
       <c r="AE2" t="n">
-        <v>121099.2499018903</v>
+        <v>149715.1305107211</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.421576100998378e-06</v>
+        <v>7.474893780546689e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.583333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>109541.7074551503</v>
+        <v>135426.5285813241</v>
       </c>
     </row>
     <row r="3">
@@ -1733,28 +1733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>64.50182689370357</v>
+        <v>85.33079530286494</v>
       </c>
       <c r="AB3" t="n">
-        <v>88.25424517570093</v>
+        <v>116.7533586623341</v>
       </c>
       <c r="AC3" t="n">
-        <v>79.83138388176431</v>
+        <v>105.6105819759993</v>
       </c>
       <c r="AD3" t="n">
-        <v>64501.82689370356</v>
+        <v>85330.79530286494</v>
       </c>
       <c r="AE3" t="n">
-        <v>88254.24517570093</v>
+        <v>116753.3586623341</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.509232038707591e-06</v>
+        <v>9.313630108599828e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.676697530864198</v>
       </c>
       <c r="AH3" t="n">
-        <v>79831.38388176431</v>
+        <v>105610.5819759993</v>
       </c>
     </row>
   </sheetData>
@@ -2030,28 +2030,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.12215539161674</v>
+        <v>99.21803973331616</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.258423629907</v>
+        <v>135.7544991540527</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.92639162034808</v>
+        <v>122.7982802874624</v>
       </c>
       <c r="AD2" t="n">
-        <v>79122.15539161675</v>
+        <v>99218.03973331617</v>
       </c>
       <c r="AE2" t="n">
-        <v>108258.423629907</v>
+        <v>135754.4991540527</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.994677942432302e-06</v>
+        <v>8.649738345978427e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.197530864197531</v>
       </c>
       <c r="AH2" t="n">
-        <v>97926.39162034809</v>
+        <v>122798.2802874624</v>
       </c>
     </row>
     <row r="3">
@@ -2136,28 +2136,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.21142786072448</v>
+        <v>82.39256354844449</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.12042017350662</v>
+        <v>112.7331403503015</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.9966467394274</v>
+        <v>101.974047657254</v>
       </c>
       <c r="AD3" t="n">
-        <v>62211.42786072449</v>
+        <v>82392.56354844448</v>
       </c>
       <c r="AE3" t="n">
-        <v>85120.42017350662</v>
+        <v>112733.1403503015</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.631800501588465e-06</v>
+        <v>9.753101464589685e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.722993827160495</v>
       </c>
       <c r="AH3" t="n">
-        <v>76996.64673942741</v>
+        <v>101974.047657254</v>
       </c>
     </row>
   </sheetData>
@@ -2433,28 +2433,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.74794987491465</v>
+        <v>83.89342975432456</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.95924561365909</v>
+        <v>114.7866917067296</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.37366147090742</v>
+        <v>103.8316109544026</v>
       </c>
       <c r="AD2" t="n">
-        <v>65747.94987491466</v>
+        <v>83893.42975432456</v>
       </c>
       <c r="AE2" t="n">
-        <v>89959.24561365909</v>
+        <v>114786.6917067296</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.681122187088228e-06</v>
+        <v>1.074990569706107e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.116512345679013</v>
       </c>
       <c r="AH2" t="n">
-        <v>81373.66147090742</v>
+        <v>103831.6109544026</v>
       </c>
     </row>
   </sheetData>
@@ -2730,28 +2730,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.90957215997756</v>
+        <v>75.90283371792222</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.86618730238273</v>
+        <v>103.8536056895119</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.43474767214148</v>
+        <v>93.94196332198206</v>
       </c>
       <c r="AD2" t="n">
-        <v>56909.57215997756</v>
+        <v>75902.83371792221</v>
       </c>
       <c r="AE2" t="n">
-        <v>77866.18730238272</v>
+        <v>103853.6056895119</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.944684246118434e-06</v>
+        <v>1.082992366093403e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.765432098765432</v>
       </c>
       <c r="AH2" t="n">
-        <v>70434.74767214149</v>
+        <v>93941.96332198205</v>
       </c>
     </row>
   </sheetData>
@@ -3027,28 +3027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.78255471745973</v>
+        <v>82.30260330557356</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.63834936900146</v>
+        <v>112.6100527772398</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.17882970994995</v>
+        <v>101.8627073894107</v>
       </c>
       <c r="AD2" t="n">
-        <v>64782.55471745973</v>
+        <v>82302.60330557356</v>
       </c>
       <c r="AE2" t="n">
-        <v>88638.34936900146</v>
+        <v>112610.0527772398</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.451712213181381e-06</v>
+        <v>1.068359939361082e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.456018518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>80178.82970994995</v>
+        <v>101862.7073894107</v>
       </c>
     </row>
   </sheetData>
@@ -3324,28 +3324,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.52039095774607</v>
+        <v>100.7865525917574</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.1715512172838</v>
+        <v>137.9006076448745</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.6569329958777</v>
+        <v>124.7395671960031</v>
       </c>
       <c r="AD2" t="n">
-        <v>80520.39095774607</v>
+        <v>100786.5525917574</v>
       </c>
       <c r="AE2" t="n">
-        <v>110171.5512172838</v>
+        <v>137900.6076448745</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.906468697056618e-06</v>
+        <v>8.44148718743918e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.232253086419753</v>
       </c>
       <c r="AH2" t="n">
-        <v>99656.93299587769</v>
+        <v>124739.5671960031</v>
       </c>
     </row>
     <row r="3">
@@ -3430,28 +3430,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.75668648194497</v>
+        <v>83.10809946197688</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.86646707417277</v>
+        <v>113.7121681544127</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.6714919709776</v>
+        <v>102.8596384218152</v>
       </c>
       <c r="AD3" t="n">
-        <v>62756.68648194498</v>
+        <v>83108.09946197688</v>
       </c>
       <c r="AE3" t="n">
-        <v>85866.46707417278</v>
+        <v>113712.1681544127</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.604093081524208e-06</v>
+        <v>9.641736830662444e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.707561728395062</v>
       </c>
       <c r="AH3" t="n">
-        <v>77671.4919709776</v>
+        <v>102859.6384218152</v>
       </c>
     </row>
   </sheetData>
@@ -3727,28 +3727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.80056980492131</v>
+        <v>90.56765539911316</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.66299840643593</v>
+        <v>123.9186616799792</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.20112627784684</v>
+        <v>112.0920385302086</v>
       </c>
       <c r="AD2" t="n">
-        <v>64800.56980492131</v>
+        <v>90567.65539911317</v>
       </c>
       <c r="AE2" t="n">
-        <v>88662.99840643593</v>
+        <v>123918.6616799792</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.20172190805361e-06</v>
+        <v>1.042768579919911e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.780092592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>80201.12627784684</v>
+        <v>112092.0385302086</v>
       </c>
     </row>
   </sheetData>
@@ -4024,28 +4024,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.62300885244161</v>
+        <v>80.25151234107123</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.94707521027416</v>
+        <v>109.8036596318621</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.03072276917634</v>
+        <v>99.32415246702945</v>
       </c>
       <c r="AD2" t="n">
-        <v>60623.00885244161</v>
+        <v>80251.51234107124</v>
       </c>
       <c r="AE2" t="n">
-        <v>82947.07521027417</v>
+        <v>109803.6596318621</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.667708808655851e-06</v>
+        <v>1.003793345000046e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.811728395061729</v>
       </c>
       <c r="AH2" t="n">
-        <v>75030.72276917634</v>
+        <v>99324.15246702945</v>
       </c>
     </row>
     <row r="3">
@@ -4130,28 +4130,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.964035323407</v>
+        <v>79.59253881203662</v>
       </c>
       <c r="AB3" t="n">
-        <v>82.04543855598915</v>
+        <v>108.9020229775771</v>
       </c>
       <c r="AC3" t="n">
-        <v>74.21513705172102</v>
+        <v>98.50856674957411</v>
       </c>
       <c r="AD3" t="n">
-        <v>59964.035323407</v>
+        <v>79592.53881203663</v>
       </c>
       <c r="AE3" t="n">
-        <v>82045.43855598915</v>
+        <v>108902.0229775771</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.760013670045982e-06</v>
+        <v>1.020141221841047e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AH3" t="n">
-        <v>74215.13705172102</v>
+        <v>98508.56674957412</v>
       </c>
     </row>
   </sheetData>
@@ -4427,28 +4427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.4980344920865</v>
+        <v>98.41716653371692</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.4044738808993</v>
+        <v>134.6587091103296</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.15394163685944</v>
+        <v>121.807070907561</v>
       </c>
       <c r="AD2" t="n">
-        <v>78498.0344920865</v>
+        <v>98417.16653371693</v>
       </c>
       <c r="AE2" t="n">
-        <v>107404.4738808993</v>
+        <v>134658.7091103296</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.016890455566703e-06</v>
+        <v>8.749018883625399e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.21682098765432</v>
       </c>
       <c r="AH2" t="n">
-        <v>97153.94163685944</v>
+        <v>121807.070907561</v>
       </c>
     </row>
     <row r="3">
@@ -4533,28 +4533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.49590775051375</v>
+        <v>81.50029113816476</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.14141399219737</v>
+        <v>111.5122938742769</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.1110755340182</v>
+        <v>100.8697170554319</v>
       </c>
       <c r="AD3" t="n">
-        <v>61495.90775051375</v>
+        <v>81500.29113816476</v>
       </c>
       <c r="AE3" t="n">
-        <v>84141.41399219737</v>
+        <v>111512.2938742769</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.671417700729025e-06</v>
+        <v>9.890457246390211e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.730709876543211</v>
       </c>
       <c r="AH3" t="n">
-        <v>76111.07553401819</v>
+        <v>100869.7170554319</v>
       </c>
     </row>
   </sheetData>
@@ -4830,28 +4830,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.09352412540829</v>
+        <v>105.6831234270861</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.4287137696725</v>
+        <v>144.6003118832271</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.3169207362512</v>
+        <v>130.7998610649435</v>
       </c>
       <c r="AD2" t="n">
-        <v>85093.52412540829</v>
+        <v>105683.1234270861</v>
       </c>
       <c r="AE2" t="n">
-        <v>116428.7137696725</v>
+        <v>144600.3118832271</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.619707389522251e-06</v>
+        <v>7.853196384711099e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.421296296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>105316.9207362512</v>
+        <v>130799.8610649435</v>
       </c>
     </row>
     <row r="3">
@@ -4936,28 +4936,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>64.51973781595972</v>
+        <v>85.19458846365816</v>
       </c>
       <c r="AB3" t="n">
-        <v>88.27875168970591</v>
+        <v>116.5669944559098</v>
       </c>
       <c r="AC3" t="n">
-        <v>79.85355152846778</v>
+        <v>105.4420041078723</v>
       </c>
       <c r="AD3" t="n">
-        <v>64519.73781595972</v>
+        <v>85194.58846365816</v>
       </c>
       <c r="AE3" t="n">
-        <v>88278.75168970591</v>
+        <v>116566.9944559098</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.485353290943972e-06</v>
+        <v>9.324737045252388e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.722993827160495</v>
       </c>
       <c r="AH3" t="n">
-        <v>79853.55152846778</v>
+        <v>105442.0041078723</v>
       </c>
     </row>
   </sheetData>
@@ -5233,28 +5233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.41849905365927</v>
+        <v>77.63479177596699</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.93076764747336</v>
+        <v>106.2233471131244</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.30228736675403</v>
+        <v>96.08553995007874</v>
       </c>
       <c r="AD2" t="n">
-        <v>58418.49905365927</v>
+        <v>77634.79177596699</v>
       </c>
       <c r="AE2" t="n">
-        <v>79930.76764747336</v>
+        <v>106223.3471131244</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.817766565575672e-06</v>
+        <v>1.04908098336783e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.796296296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>72302.28736675403</v>
+        <v>96085.53995007875</v>
       </c>
     </row>
   </sheetData>
@@ -5530,28 +5530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.3094022060495</v>
+        <v>84.72759185898116</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.72744946264611</v>
+        <v>115.9280290989549</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.06854902272823</v>
+        <v>104.8640207077914</v>
       </c>
       <c r="AD2" t="n">
-        <v>66309.4022060495</v>
+        <v>84727.59185898116</v>
       </c>
       <c r="AE2" t="n">
-        <v>90727.44946264611</v>
+        <v>115928.0290989549</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.742866190371978e-06</v>
+        <v>1.071435264576169e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.008487654320988</v>
       </c>
       <c r="AH2" t="n">
-        <v>82068.54902272823</v>
+        <v>104864.0207077914</v>
       </c>
     </row>
   </sheetData>
@@ -8936,28 +8936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.25446774178432</v>
+        <v>83.10286168874889</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.2840415882153</v>
+        <v>113.7050016020079</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.76289796999697</v>
+        <v>102.8531558351137</v>
       </c>
       <c r="AD2" t="n">
-        <v>65254.46774178432</v>
+        <v>83102.86168874889</v>
       </c>
       <c r="AE2" t="n">
-        <v>89284.0415882153</v>
+        <v>113705.0016020079</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.584462091632299e-06</v>
+        <v>1.073912769421065e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.263117283950617</v>
       </c>
       <c r="AH2" t="n">
-        <v>80762.89796999696</v>
+        <v>102853.1558351136</v>
       </c>
     </row>
   </sheetData>
@@ -9233,28 +9233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.21438213281135</v>
+        <v>99.24999018252672</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.5433917415376</v>
+        <v>135.7982151682169</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.85223295079605</v>
+        <v>122.8378241065907</v>
       </c>
       <c r="AD2" t="n">
-        <v>74214.38213281136</v>
+        <v>99249.99018252672</v>
       </c>
       <c r="AE2" t="n">
-        <v>101543.3917415376</v>
+        <v>135798.2151682169</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.756462310796391e-06</v>
+        <v>9.810675934336097e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.374228395061729</v>
       </c>
       <c r="AH2" t="n">
-        <v>91852.23295079605</v>
+        <v>122837.8241065907</v>
       </c>
     </row>
   </sheetData>
@@ -9530,28 +9530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.78621176788675</v>
+        <v>93.34620796930527</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.27510898984768</v>
+        <v>127.7203998876022</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.94569507926229</v>
+        <v>115.5309441790703</v>
       </c>
       <c r="AD2" t="n">
-        <v>63786.21176788675</v>
+        <v>93346.20796930527</v>
       </c>
       <c r="AE2" t="n">
-        <v>87275.10898984768</v>
+        <v>127720.3998876022</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.38365583188424e-06</v>
+        <v>9.45887092337276e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.969907407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>78945.6950792623</v>
+        <v>115530.9441790703</v>
       </c>
     </row>
     <row r="3">
@@ -9636,28 +9636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.89714733582426</v>
+        <v>80.71759927619875</v>
       </c>
       <c r="AB3" t="n">
-        <v>83.32216357737445</v>
+        <v>110.4413803388076</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.37001322896052</v>
+        <v>99.9010100047509</v>
       </c>
       <c r="AD3" t="n">
-        <v>60897.14733582426</v>
+        <v>80717.59927619876</v>
       </c>
       <c r="AE3" t="n">
-        <v>83322.16357737445</v>
+        <v>110441.3803388076</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.685215893091956e-06</v>
+        <v>9.988700055041053e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.757716049382716</v>
       </c>
       <c r="AH3" t="n">
-        <v>75370.01322896051</v>
+        <v>99901.0100047509</v>
       </c>
     </row>
   </sheetData>
@@ -9933,28 +9933,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.50486076580739</v>
+        <v>102.9354229646176</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.886790357301</v>
+        <v>140.8407868904905</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.1130335232346</v>
+        <v>127.3991398609859</v>
       </c>
       <c r="AD2" t="n">
-        <v>82504.86076580739</v>
+        <v>102935.4229646176</v>
       </c>
       <c r="AE2" t="n">
-        <v>112886.790357301</v>
+        <v>140840.7868904905</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.783039090791583e-06</v>
+        <v>8.178463811919452e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.305555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>102113.0335232346</v>
+        <v>127399.1398609859</v>
       </c>
     </row>
     <row r="3">
@@ -10039,28 +10039,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.72615913192342</v>
+        <v>84.24197267675426</v>
       </c>
       <c r="AB3" t="n">
-        <v>87.19294232398737</v>
+        <v>115.2635835098261</v>
       </c>
       <c r="AC3" t="n">
-        <v>78.87137028467004</v>
+        <v>104.2629888731336</v>
       </c>
       <c r="AD3" t="n">
-        <v>63726.15913192342</v>
+        <v>84241.97267675426</v>
       </c>
       <c r="AE3" t="n">
-        <v>87192.94232398737</v>
+        <v>115263.5835098261</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.530659177678922e-06</v>
+        <v>9.456810843923382e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.722993827160495</v>
       </c>
       <c r="AH3" t="n">
-        <v>78871.37028467003</v>
+        <v>104262.9888731336</v>
       </c>
     </row>
   </sheetData>
@@ -10336,28 +10336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.32600274207675</v>
+        <v>117.7923757544937</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.7468012692309</v>
+        <v>161.168725140087</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.6046504112904</v>
+        <v>145.787008214488</v>
       </c>
       <c r="AD2" t="n">
-        <v>85326.00274207676</v>
+        <v>117792.3757544937</v>
       </c>
       <c r="AE2" t="n">
-        <v>116746.8012692309</v>
+        <v>161168.725140087</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.956037141001613e-06</v>
+        <v>8.479609706138622e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.689814814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>105604.6504112904</v>
+        <v>145787.008214488</v>
       </c>
     </row>
   </sheetData>
@@ -10633,28 +10633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.43865993935011</v>
+        <v>76.19514788950865</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.59010854382534</v>
+        <v>104.2535628350673</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.08957888633088</v>
+        <v>94.30374911890918</v>
       </c>
       <c r="AD2" t="n">
-        <v>57438.65993935011</v>
+        <v>76195.14788950865</v>
       </c>
       <c r="AE2" t="n">
-        <v>78590.10854382534</v>
+        <v>104253.5628350673</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.779909546400147e-06</v>
+        <v>1.064909339824599e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.923611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>71089.57888633088</v>
+        <v>94303.74911890918</v>
       </c>
     </row>
   </sheetData>
@@ -10930,28 +10930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.46255797925289</v>
+        <v>78.89008646105739</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.35929513009881</v>
+        <v>107.9408966809572</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.59447819138909</v>
+        <v>97.63916899775407</v>
       </c>
       <c r="AD2" t="n">
-        <v>59462.55797925289</v>
+        <v>78890.08646105739</v>
       </c>
       <c r="AE2" t="n">
-        <v>81359.29513009882</v>
+        <v>107940.8966809572</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.743613890542724e-06</v>
+        <v>1.026054705638856e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.800154320987654</v>
       </c>
       <c r="AH2" t="n">
-        <v>73594.47819138909</v>
+        <v>97639.16899775407</v>
       </c>
     </row>
     <row r="3">
@@ -11036,28 +11036,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.59499628569573</v>
+        <v>79.02252476750022</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.54050306373954</v>
+        <v>108.1221046145979</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.75839189417013</v>
+        <v>97.8030827005351</v>
       </c>
       <c r="AD3" t="n">
-        <v>59594.99628569573</v>
+        <v>79022.52476750022</v>
       </c>
       <c r="AE3" t="n">
-        <v>81540.50306373954</v>
+        <v>108122.1046145979</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.742481887450291e-06</v>
+        <v>1.025852481547557e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.804012345679012</v>
       </c>
       <c r="AH3" t="n">
-        <v>73758.39189417013</v>
+        <v>97803.0827005351</v>
       </c>
     </row>
   </sheetData>
